--- a/biology/Botanique/Doussié/Doussié.xlsx
+++ b/biology/Botanique/Doussié/Doussié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doussi%C3%A9</t>
+          <t>Doussié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le doussié est un bois d'œuvre produit par différentes espèces d'arbres du genre Afzelia (Famille des Fabaceae, sous-famille des Caesalpinioideae) poussant en Afrique tropicale.
-Les espèces concernées sont les suivantes : Afzelia africana Sm., Afzelia bella Harms, Afzelia bipindensis Harms, Afzelia pachyloba Harms, Afzelia quanzensis  Welw[1],[2]. Le terme désigne également ces plantes (nom vernaculaire).
+Les espèces concernées sont les suivantes : Afzelia africana Sm., Afzelia bella Harms, Afzelia bipindensis Harms, Afzelia pachyloba Harms, Afzelia quanzensis  Welw,. Le terme désigne également ces plantes (nom vernaculaire).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doussi%C3%A9</t>
+          <t>Doussié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Provenance : Ghana, Nigeria, Cameroun, Côte d'Ivoire
-Couleur[1] : brun doré à brun rougeâtre, parfois veiné de sombre. Aubier différencié, mesurant de 3 à 7 cm d'épaisseur, de couleur blanc à jaune pâle[3].
+Couleur : brun doré à brun rougeâtre, parfois veiné de sombre. Aubier différencié, mesurant de 3 à 7 cm d'épaisseur, de couleur blanc à jaune pâle.
 Poids spécifique : 800 kg/m3 (moyenne)
-Dureté[4]
+Dureté
 échelle de Brinell : 4,5 kg/cm2
 échelle Janka :  821 kg/cm2
-Retrait[1] :  faible (coefficient de retrait volumique 0,44 %)
-Durabilité[1] :
+Retrait :  faible (coefficient de retrait volumique 0,44 %)
+Durabilité :
 champignons : classe 1 (très durable)
 insectes de bois sec : risque limité à l'aubier (durable)
 termites : classe D (durable)
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doussi%C3%A9</t>
+          <t>Doussié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le doussié est un bois très polyvalent, aux multiples applications. Il convient en particulier dans toutes les situations qui requièrent à la fois durabilité, stabilité et solidité[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le doussié est un bois très polyvalent, aux multiples applications. Il convient en particulier dans toutes les situations qui requièrent à la fois durabilité, stabilité et solidité,.
 construction navale (membrure, bordé et pont)
 menuiserie extérieure et intérieure
 escaliers (intérieurs)
